--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,229 +46,235 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>pay</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>would</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>looks</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>pieces</t>
+    <t>think</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>get</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
@@ -277,15 +283,15 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -304,28 +310,34 @@
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>loves</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>learn</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>happy</t>
   </si>
   <si>
     <t>enjoy</t>
@@ -334,16 +346,10 @@
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>playing</t>
   </si>
   <si>
     <t>play</t>
@@ -707,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -797,16 +803,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -826,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4">
-        <v>0.85</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -868,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>0.7846153846153846</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>0.7037037037037037</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,13 +982,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7475728155339806</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C7">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>0.6881720430107527</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7473118279569892</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C8">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1082,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6554621848739496</v>
+        <v>0.703125</v>
       </c>
       <c r="C9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K9">
-        <v>0.53125</v>
+        <v>0.515625</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1126,37 +1132,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6418918918918919</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D10">
-        <v>95</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>53</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K10">
-        <v>0.5217391304347826</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K11">
-        <v>0.3663934426229508</v>
+        <v>0.369672131147541</v>
       </c>
       <c r="L11">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M11">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1232,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5952380952380952</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12">
-        <v>0.3649425287356322</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L12">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="M12">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,13 +1282,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1294,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K13">
-        <v>0.2916666666666667</v>
+        <v>0.2987551867219917</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>85</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5789473684210527</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K14">
-        <v>0.2863070539419087</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L14">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>344</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5740740740740741</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15">
-        <v>0.2293577981651376</v>
+        <v>0.275</v>
       </c>
       <c r="L15">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>252</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1432,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16">
-        <v>0.2108433734939759</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,13 +1482,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5428571428571428</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1494,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K17">
-        <v>0.1957671957671958</v>
+        <v>0.2140672782874618</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1518,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1532,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5172413793103449</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K18">
-        <v>0.1587301587301587</v>
+        <v>0.1953125</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5101449275362319</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C19">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19">
-        <v>0.1484375</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1618,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>109</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5060240963855421</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K20">
-        <v>0.1244979919678715</v>
+        <v>0.1365461847389558</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1682,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,31 +1700,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K21">
-        <v>0.1081081081081081</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1732,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4888888888888889</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22">
-        <v>0.1042944785276074</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L22">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1768,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1022</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1782,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4857142857142857</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,31 +1800,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K23">
-        <v>0.0584958217270195</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>338</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1832,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4526315789473684</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C24">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1844,31 +1850,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K24">
-        <v>0.05630026809651475</v>
+        <v>0.09640666082383874</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>352</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1882,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4330708661417323</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1894,31 +1900,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K25">
-        <v>0.05263157894736842</v>
+        <v>0.05259740259740259</v>
       </c>
       <c r="L25">
         <v>81</v>
       </c>
       <c r="M25">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,38 +1932,38 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4210526315789473</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>54</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>73</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26">
+        <v>0.04456824512534819</v>
+      </c>
+      <c r="L26">
         <v>16</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>22</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26">
-        <v>0.04629629629629629</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>15</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>309</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,13 +1982,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4102564102564102</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1994,31 +2000,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>53</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27">
+        <v>0.028</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
         <v>23</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27">
-        <v>0.02406417112299465</v>
-      </c>
-      <c r="L27">
-        <v>18</v>
-      </c>
-      <c r="M27">
-        <v>22</v>
-      </c>
       <c r="N27">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="O27">
-        <v>0.18</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2026,25 +2032,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4044943820224719</v>
+        <v>0.4</v>
       </c>
       <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>36</v>
-      </c>
-      <c r="D28">
-        <v>36</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2052,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3554502369668247</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C29">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2078,13 +2084,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3442622950819672</v>
+        <v>0.3910891089108911</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2096,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2110,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.34375</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2130,13 +2136,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3333333333333333</v>
+        <v>0.3515625</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2148,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2156,13 +2162,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2174,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2185,10 +2191,10 @@
         <v>0.3265306122448979</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2200,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2208,13 +2214,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3148148148148148</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2226,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2234,13 +2240,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3118811881188119</v>
+        <v>0.3222748815165877</v>
       </c>
       <c r="C36">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D36">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2252,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2260,13 +2266,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3061224489795918</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2278,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2286,13 +2292,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2991452991452991</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2304,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2312,13 +2318,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.296875</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2330,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2364,13 +2370,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2653061224489796</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2382,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2390,13 +2396,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2628865979381443</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2408,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2416,13 +2422,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.253968253968254</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>47</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2442,13 +2448,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2373417721518987</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C44">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D44">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2460,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>241</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2468,13 +2474,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2238805970149254</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2486,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2494,13 +2500,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2173913043478261</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2512,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2520,13 +2526,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2101910828025478</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="C47">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D47">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2538,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>124</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2546,13 +2552,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2087912087912088</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2564,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2572,13 +2578,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2062314540059347</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C49">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2590,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>535</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2624,13 +2630,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.205607476635514</v>
+        <v>0.198813056379822</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2642,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>170</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2650,13 +2656,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2028985507246377</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C52">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2668,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>220</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2676,13 +2682,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1752577319587629</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2694,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>80</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2702,13 +2708,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.165</v>
+        <v>0.1696035242290749</v>
       </c>
       <c r="C54">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2720,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>167</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2728,13 +2734,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1574074074074074</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2746,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2754,13 +2760,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1563876651982379</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C56">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2772,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>383</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2780,13 +2786,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2798,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2806,25 +2812,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1498559077809798</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C58">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>295</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2832,13 +2838,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1484375</v>
+        <v>0.15625</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2850,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2858,25 +2864,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1417004048582996</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C60">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>212</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2884,13 +2890,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1355932203389831</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2902,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2910,13 +2916,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1307692307692308</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2928,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>113</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2936,13 +2942,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1257142857142857</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2954,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2962,13 +2968,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1123595505617977</v>
+        <v>0.125</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2980,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>237</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2988,25 +2994,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1122994652406417</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E65">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F65">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3014,13 +3020,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1085714285714286</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3032,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3040,13 +3046,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1047120418848168</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3058,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>171</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3066,13 +3072,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08743169398907104</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3084,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3092,25 +3098,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07692307692307693</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>336</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3118,25 +3124,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.07605633802816901</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>328</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3144,25 +3150,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07248764415156507</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="C71">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D71">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E71">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>563</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3170,25 +3176,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07242990654205607</v>
+        <v>0.07907742998352553</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D72">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E72">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="F72">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>397</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3196,25 +3202,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.06349206349206349</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73">
         <v>22</v>
       </c>
       <c r="E73">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F73">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3222,25 +3228,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.05803571428571429</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E74">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3248,25 +3254,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.05714285714285714</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>264</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3274,25 +3280,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.05152224824355972</v>
+        <v>0.06478873239436619</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>405</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3300,25 +3306,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.03969465648854962</v>
+        <v>0.0630841121495327</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>629</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3326,25 +3332,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03802281368821293</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D78">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="F78">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>759</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3352,25 +3358,77 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.03433476394849785</v>
+        <v>0.04562737642585551</v>
       </c>
       <c r="C79">
+        <v>36</v>
+      </c>
+      <c r="D79">
+        <v>41</v>
+      </c>
+      <c r="E79">
+        <v>0.12</v>
+      </c>
+      <c r="F79">
+        <v>0.88</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.04294478527607362</v>
+      </c>
+      <c r="C80">
+        <v>28</v>
+      </c>
+      <c r="D80">
+        <v>31</v>
+      </c>
+      <c r="E80">
+        <v>0.1</v>
+      </c>
+      <c r="F80">
+        <v>0.9</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.02982107355864811</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
         <v>16</v>
       </c>
-      <c r="D79">
-        <v>19</v>
-      </c>
-      <c r="E79">
-        <v>0.16</v>
-      </c>
-      <c r="F79">
-        <v>0.84</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>450</v>
+      <c r="E81">
+        <v>0.06</v>
+      </c>
+      <c r="F81">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
